--- a/biology/Zoologie/Léon_Fairmaire/Léon_Fairmaire.xlsx
+++ b/biology/Zoologie/Léon_Fairmaire/Léon_Fairmaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Fairmaire</t>
+          <t>Léon_Fairmaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Marc Herminie Fairmaire est un entomologiste français, né le 29 juin 1820 à Paris et mort le 1er avril 1906 dans cette même ville.
 Spécialiste des coléoptères, il rassemble une immense collection qui a été comparée à celle du comte Pierre François Marie Auguste Dejean (1780-1845). Elle est actuellement conservée au Muséum national d'histoire naturelle. Il fait paraître près de 450 publications (Liste partielle de ses publications dans Wikispecies)
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Fairmaire</t>
+          <t>Léon_Fairmaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1894
-Hétéromères du Bengale. L Fairmaire - Annales de la Société entomologique de Belgique, 1894
+          <t>1894</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hétéromères du Bengale. L Fairmaire - Annales de la Société entomologique de Belgique, 1894
 Quelques coléoptères du Thibet L Fairmaire - Annales de la Société Entomologique de Belgique, 1894
 Coléoptères du Kilimandjaro et des environs. L Fairmaire - Annales de la Société Entomologique de Belgique, 1894
 Descriptions de coléoptères d'Algérie. L Fairmaire - Annales de la Société Entomologique de Belgique, 1894
-Description de cinq Coléoptères exotiques. L Fairmaire - Bulletin de la Société entomologique de France, 1894
-Livres
-Histoire naturelle de la France (Musée Scolaire Deyrolle), 8e partie : Coléoptères, chez Émile Deyrolle, Naturaliste, Paris vers 1884.</t>
+Description de cinq Coléoptères exotiques. L Fairmaire - Bulletin de la Société entomologique de France, 1894</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Léon_Fairmaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9on_Fairmaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Histoire naturelle de la France (Musée Scolaire Deyrolle), 8e partie : Coléoptères, chez Émile Deyrolle, Naturaliste, Paris vers 1884.</t>
         </is>
       </c>
     </row>
